--- a/testings/demo.xlsx
+++ b/testings/demo.xlsx
@@ -92,6 +92,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="uptime_view_colored.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="762000"/>
+          <a:ext cx="4762500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,5 +482,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>